--- a/data/trans_bre/P14B_x_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P14B_x_R-Habitat-trans_bre.xlsx
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 10,22</t>
+          <t>-1,32; 10,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 6,34</t>
+          <t>-3,11; 7,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-54,2; 1128,7</t>
+          <t>-58,97; 1152,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-55,35; 572,87</t>
+          <t>-51,26; 658,61</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,89; 9,22</t>
+          <t>4,17; 9,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 2,97</t>
+          <t>-2,03; 3,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>128,58; 981,86</t>
+          <t>151,75; 1054,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-30,12; 66,36</t>
+          <t>-26,89; 70,59</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,74; 6,32</t>
+          <t>3,0; 6,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,9; 6,17</t>
+          <t>3,02; 6,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>124,1; 611,9</t>
+          <t>129,32; 654,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>81,19; 327,34</t>
+          <t>86,05; 357,29</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,19; 6,75</t>
+          <t>2,27; 6,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 7,95</t>
+          <t>1,64; 8,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>59,17; 446,76</t>
+          <t>66,49; 416,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>40,02; 342,39</t>
+          <t>36,7; 320,22</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,52; 6,2</t>
+          <t>2,64; 6,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,86; 5,98</t>
+          <t>2,04; 5,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>89,1; 403,46</t>
+          <t>94,25; 417,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>35,88; 174,52</t>
+          <t>37,85; 174,67</t>
         </is>
       </c>
     </row>
@@ -1178,12 +1178,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,79; 5,77</t>
+          <t>3,74; 5,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,61; 4,9</t>
+          <t>2,69; 5,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>164,33; 345,51</t>
+          <t>158,65; 353,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>56,92; 146,23</t>
+          <t>58,27; 144,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P14B_x_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P14B_x_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 10,12</t>
+          <t>-1,6; 10,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-58,97; 1152,92</t>
+          <t>-52,36; 1124,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,17; 9,34</t>
+          <t>4,18; 9,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>151,75; 1054,45</t>
+          <t>163,57; 1079,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,0; 6,36</t>
+          <t>2,74; 6,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>129,32; 654,38</t>
+          <t>122,37; 572,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,27; 6,8</t>
+          <t>2,27; 6,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>66,49; 416,79</t>
+          <t>66,83; 428,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,64; 6,19</t>
+          <t>2,56; 6,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>94,25; 417,94</t>
+          <t>78,98; 416,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,74; 5,74</t>
+          <t>3,73; 5,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>158,65; 353,41</t>
+          <t>155,0; 336,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/P14B_x_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P14B_x_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 10,05</t>
+          <t>-1,16; 10,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 7,03</t>
+          <t>-3,28; 6,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-52,36; 1124,97</t>
+          <t>-54,2; 1128,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-51,26; 658,61</t>
+          <t>-55,35; 572,87</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,18; 9,09</t>
+          <t>3,89; 9,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 3,21</t>
+          <t>-2,3; 2,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>163,57; 1079,16</t>
+          <t>128,58; 981,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,89; 70,59</t>
+          <t>-30,12; 66,36</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,74; 6,29</t>
+          <t>2,74; 6,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,02; 6,49</t>
+          <t>2,9; 6,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>122,37; 572,04</t>
+          <t>124,1; 611,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>86,05; 357,29</t>
+          <t>81,19; 327,34</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,27; 6,72</t>
+          <t>2,19; 6,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 8,05</t>
+          <t>1,67; 7,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>66,83; 428,32</t>
+          <t>59,17; 446,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>36,7; 320,22</t>
+          <t>40,02; 342,39</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,56; 6,21</t>
+          <t>2,52; 6,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,04; 5,93</t>
+          <t>1,86; 5,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>78,98; 416,0</t>
+          <t>89,1; 403,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>37,85; 174,67</t>
+          <t>35,88; 174,52</t>
         </is>
       </c>
     </row>
@@ -1178,12 +1178,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,73; 5,73</t>
+          <t>3,79; 5,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,69; 5,01</t>
+          <t>2,61; 4,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>155,0; 336,82</t>
+          <t>164,33; 345,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>58,27; 144,3</t>
+          <t>56,92; 146,23</t>
         </is>
       </c>
     </row>
